--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fbn1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fbn1-Itgav.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.51004766666667</v>
+        <v>32.476463</v>
       </c>
       <c r="H2">
-        <v>76.530143</v>
+        <v>97.42938900000001</v>
       </c>
       <c r="I2">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309313</v>
       </c>
       <c r="J2">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309314</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N2">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q2">
-        <v>468.9378645014037</v>
+        <v>730.5713830112931</v>
       </c>
       <c r="R2">
-        <v>4220.440780512633</v>
+        <v>6575.142447101638</v>
       </c>
       <c r="S2">
-        <v>0.003413243188298395</v>
+        <v>0.005527277359131857</v>
       </c>
       <c r="T2">
-        <v>0.003413243188298395</v>
+        <v>0.005527277359131859</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.51004766666667</v>
+        <v>32.476463</v>
       </c>
       <c r="H3">
-        <v>76.530143</v>
+        <v>97.42938900000001</v>
       </c>
       <c r="I3">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309313</v>
       </c>
       <c r="J3">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309314</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
         <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q3">
-        <v>2108.235500215794</v>
+        <v>2683.963319578982</v>
       </c>
       <c r="R3">
-        <v>18974.11950194214</v>
+        <v>24155.66987621084</v>
       </c>
       <c r="S3">
-        <v>0.01534514699104422</v>
+        <v>0.02030603721145202</v>
       </c>
       <c r="T3">
-        <v>0.01534514699104422</v>
+        <v>0.02030603721145203</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.51004766666667</v>
+        <v>32.476463</v>
       </c>
       <c r="H4">
-        <v>76.530143</v>
+        <v>97.42938900000001</v>
       </c>
       <c r="I4">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309313</v>
       </c>
       <c r="J4">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309314</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N4">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O4">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P4">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q4">
-        <v>2327.817274597508</v>
+        <v>2576.230014908095</v>
       </c>
       <c r="R4">
-        <v>20950.35547137757</v>
+        <v>23186.07013417286</v>
       </c>
       <c r="S4">
-        <v>0.01694340990052317</v>
+        <v>0.01949096031468471</v>
       </c>
       <c r="T4">
-        <v>0.01694340990052318</v>
+        <v>0.01949096031468472</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.51004766666667</v>
+        <v>32.476463</v>
       </c>
       <c r="H5">
-        <v>76.530143</v>
+        <v>97.42938900000001</v>
       </c>
       <c r="I5">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309313</v>
       </c>
       <c r="J5">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309314</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N5">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q5">
-        <v>371.2775619454207</v>
+        <v>469.842316360932</v>
       </c>
       <c r="R5">
-        <v>3341.498057508786</v>
+        <v>4228.580847248389</v>
       </c>
       <c r="S5">
-        <v>0.002702406235900043</v>
+        <v>0.003554681798347559</v>
       </c>
       <c r="T5">
-        <v>0.002702406235900043</v>
+        <v>0.00355468179834756</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>25.51004766666667</v>
+        <v>32.476463</v>
       </c>
       <c r="H6">
-        <v>76.530143</v>
+        <v>97.42938900000001</v>
       </c>
       <c r="I6">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309313</v>
       </c>
       <c r="J6">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309314</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N6">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O6">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P6">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q6">
-        <v>2073.672378806386</v>
+        <v>2349.583004286504</v>
       </c>
       <c r="R6">
-        <v>18663.05140925748</v>
+        <v>21146.24703857853</v>
       </c>
       <c r="S6">
-        <v>0.01509357349347131</v>
+        <v>0.01777621905947697</v>
       </c>
       <c r="T6">
-        <v>0.01509357349347131</v>
+        <v>0.01777621905947698</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>439.2986856666667</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H7">
         <v>1317.896057</v>
       </c>
       <c r="I7">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559002</v>
       </c>
       <c r="J7">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559003</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N7">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q7">
-        <v>8075.397985397731</v>
+        <v>9882.204485831475</v>
       </c>
       <c r="R7">
-        <v>72678.58186857958</v>
+        <v>88939.84037248328</v>
       </c>
       <c r="S7">
-        <v>0.05877814365825194</v>
+        <v>0.07476570583384491</v>
       </c>
       <c r="T7">
-        <v>0.05877814365825194</v>
+        <v>0.07476570583384493</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>439.2986856666667</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H8">
         <v>1317.896057</v>
       </c>
       <c r="I8">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559002</v>
       </c>
       <c r="J8">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559003</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
         <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q8">
         <v>36305.10990893898</v>
       </c>
       <c r="R8">
-        <v>326745.9891804509</v>
+        <v>326745.9891804508</v>
       </c>
       <c r="S8">
-        <v>0.2642528541150458</v>
+        <v>0.2746732443766828</v>
       </c>
       <c r="T8">
-        <v>0.2642528541150458</v>
+        <v>0.2746732443766828</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>439.2986856666667</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H9">
         <v>1317.896057</v>
       </c>
       <c r="I9">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559002</v>
       </c>
       <c r="J9">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559003</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N9">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O9">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P9">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q9">
-        <v>40086.44290144005</v>
+        <v>34847.83609360856</v>
       </c>
       <c r="R9">
-        <v>360777.9861129605</v>
+        <v>313630.5248424771</v>
       </c>
       <c r="S9">
-        <v>0.2917759228547928</v>
+        <v>0.2636479609439659</v>
       </c>
       <c r="T9">
-        <v>0.2917759228547928</v>
+        <v>0.2636479609439659</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>439.2986856666667</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H10">
         <v>1317.896057</v>
       </c>
       <c r="I10">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559002</v>
       </c>
       <c r="J10">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559003</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N10">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q10">
-        <v>6393.627605536334</v>
+        <v>6355.406130524115</v>
       </c>
       <c r="R10">
-        <v>57542.64844982701</v>
+        <v>57198.65517471704</v>
       </c>
       <c r="S10">
-        <v>0.04653709483732284</v>
+        <v>0.04808303915291839</v>
       </c>
       <c r="T10">
-        <v>0.04653709483732284</v>
+        <v>0.0480830391529184</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>439.2986856666667</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H11">
         <v>1317.896057</v>
       </c>
       <c r="I11">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559002</v>
       </c>
       <c r="J11">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559003</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N11">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O11">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P11">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q11">
-        <v>35709.91173423977</v>
+        <v>31782.05476525565</v>
       </c>
       <c r="R11">
-        <v>321389.205608158</v>
+        <v>286038.4928873009</v>
       </c>
       <c r="S11">
-        <v>0.2599206040041707</v>
+        <v>0.2404532066484882</v>
       </c>
       <c r="T11">
-        <v>0.2599206040041708</v>
+        <v>0.2404532066484883</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.065331</v>
+        <v>0.3503193333333334</v>
       </c>
       <c r="H12">
-        <v>0.195993</v>
+        <v>1.050958</v>
       </c>
       <c r="I12">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741536</v>
       </c>
       <c r="J12">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741537</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N12">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q12">
-        <v>1.200945604887</v>
+        <v>7.880577384579334</v>
       </c>
       <c r="R12">
-        <v>10.808510443983</v>
+        <v>70.925196461214</v>
       </c>
       <c r="S12">
-        <v>8.741284753697213E-06</v>
+        <v>5.962201362874706E-05</v>
       </c>
       <c r="T12">
-        <v>8.741284753697213E-06</v>
+        <v>5.962201362874706E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.065331</v>
+        <v>0.3503193333333334</v>
       </c>
       <c r="H13">
-        <v>0.195993</v>
+        <v>1.050958</v>
       </c>
       <c r="I13">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741536</v>
       </c>
       <c r="J13">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741537</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
         <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q13">
-        <v>5.399171936655</v>
+        <v>28.95155918937444</v>
       </c>
       <c r="R13">
-        <v>48.592547429895</v>
+        <v>260.56403270437</v>
       </c>
       <c r="S13">
-        <v>3.929878184358979E-05</v>
+        <v>0.0002190385516599431</v>
       </c>
       <c r="T13">
-        <v>3.929878184358979E-05</v>
+        <v>0.0002190385516599432</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.065331</v>
+        <v>0.3503193333333334</v>
       </c>
       <c r="H14">
-        <v>0.195993</v>
+        <v>1.050958</v>
       </c>
       <c r="I14">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741536</v>
       </c>
       <c r="J14">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741537</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N14">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O14">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P14">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q14">
-        <v>5.96151886323</v>
+        <v>27.78945420675667</v>
       </c>
       <c r="R14">
-        <v>53.65366976907</v>
+        <v>250.10508786081</v>
       </c>
       <c r="S14">
-        <v>4.339191861477691E-05</v>
+        <v>0.0002102464244171789</v>
       </c>
       <c r="T14">
-        <v>4.339191861477692E-05</v>
+        <v>0.0002102464244171789</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.065331</v>
+        <v>0.3503193333333334</v>
       </c>
       <c r="H15">
-        <v>0.195993</v>
+        <v>1.050958</v>
       </c>
       <c r="I15">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741536</v>
       </c>
       <c r="J15">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741537</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N15">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q15">
-        <v>0.9508384584929999</v>
+        <v>5.068127247704</v>
       </c>
       <c r="R15">
-        <v>8.557546126436998</v>
+        <v>45.613145229336</v>
       </c>
       <c r="S15">
-        <v>6.920837785351547E-06</v>
+        <v>3.834388485621884E-05</v>
       </c>
       <c r="T15">
-        <v>6.920837785351547E-06</v>
+        <v>3.834388485621884E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.065331</v>
+        <v>0.3503193333333334</v>
       </c>
       <c r="H16">
-        <v>0.195993</v>
+        <v>1.050958</v>
       </c>
       <c r="I16">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741536</v>
       </c>
       <c r="J16">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741537</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N16">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O16">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P16">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q16">
-        <v>5.310656097159</v>
+        <v>25.34464272396222</v>
       </c>
       <c r="R16">
-        <v>47.795904874431</v>
+        <v>228.10178451566</v>
       </c>
       <c r="S16">
-        <v>3.865450440496267E-05</v>
+        <v>0.0001917497361120657</v>
       </c>
       <c r="T16">
-        <v>3.865450440496268E-05</v>
+        <v>0.0001917497361120658</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.74485733333333</v>
+        <v>14.81881666666667</v>
       </c>
       <c r="H17">
-        <v>35.234572</v>
+        <v>44.45645</v>
       </c>
       <c r="I17">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="J17">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N17">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q17">
-        <v>215.8995697982814</v>
+        <v>333.3553714503167</v>
       </c>
       <c r="R17">
-        <v>1943.096128184532</v>
+        <v>3000.19834305285</v>
       </c>
       <c r="S17">
-        <v>0.001571461363551998</v>
+        <v>0.002522063743542284</v>
       </c>
       <c r="T17">
-        <v>0.001571461363551998</v>
+        <v>0.002522063743542284</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.74485733333333</v>
+        <v>14.81881666666667</v>
       </c>
       <c r="H18">
-        <v>35.234572</v>
+        <v>44.45645</v>
       </c>
       <c r="I18">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="J18">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N18">
         <v>247.930015</v>
       </c>
       <c r="O18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q18">
-        <v>970.6342182753979</v>
+        <v>1224.676479482972</v>
       </c>
       <c r="R18">
-        <v>8735.707964478579</v>
+        <v>11022.08831534675</v>
       </c>
       <c r="S18">
-        <v>0.007064924555368086</v>
+        <v>0.009265523855323124</v>
       </c>
       <c r="T18">
-        <v>0.007064924555368086</v>
+        <v>0.009265523855323124</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.74485733333333</v>
+        <v>14.81881666666667</v>
       </c>
       <c r="H19">
-        <v>35.234572</v>
+        <v>44.45645</v>
       </c>
       <c r="I19">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="J19">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N19">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O19">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P19">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q19">
-        <v>1071.729937374476</v>
+        <v>1175.518414123083</v>
       </c>
       <c r="R19">
-        <v>9645.569436370281</v>
+        <v>10579.66572710775</v>
       </c>
       <c r="S19">
-        <v>0.007800766765397219</v>
+        <v>0.008893609121183808</v>
       </c>
       <c r="T19">
-        <v>0.00780076676539722</v>
+        <v>0.008893609121183808</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.74485733333333</v>
+        <v>14.81881666666667</v>
       </c>
       <c r="H20">
-        <v>35.234572</v>
+        <v>44.45645</v>
       </c>
       <c r="I20">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="J20">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N20">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q20">
-        <v>170.9366463401275</v>
+        <v>214.3862510026</v>
       </c>
       <c r="R20">
-        <v>1538.429817061148</v>
+        <v>1929.4762590234</v>
       </c>
       <c r="S20">
-        <v>0.001244191156052969</v>
+        <v>0.001621980136138885</v>
       </c>
       <c r="T20">
-        <v>0.001244191156052969</v>
+        <v>0.001621980136138885</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.74485733333333</v>
+        <v>14.81881666666667</v>
       </c>
       <c r="H21">
-        <v>35.234572</v>
+        <v>44.45645</v>
       </c>
       <c r="I21">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="J21">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N21">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O21">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P21">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q21">
-        <v>954.7213146519915</v>
+        <v>1072.100732879611</v>
       </c>
       <c r="R21">
-        <v>8592.491831867923</v>
+        <v>9648.906595916502</v>
       </c>
       <c r="S21">
-        <v>0.006949099807549117</v>
+        <v>0.008111182897869607</v>
       </c>
       <c r="T21">
-        <v>0.006949099807549119</v>
+        <v>0.008111182897869608</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.2241876666666666</v>
+        <v>0.2866413333333334</v>
       </c>
       <c r="H22">
-        <v>0.6725629999999999</v>
+        <v>0.859924</v>
       </c>
       <c r="I22">
-        <v>0.0004701497458568706</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="J22">
-        <v>0.0004701497458568705</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N22">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O22">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P22">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q22">
-        <v>4.121124626183667</v>
+        <v>6.448114602921335</v>
       </c>
       <c r="R22">
-        <v>37.090121635653</v>
+        <v>58.033031426292</v>
       </c>
       <c r="S22">
-        <v>2.99962993464096E-05</v>
+        <v>4.878444281092744E-05</v>
       </c>
       <c r="T22">
-        <v>2.99962993464096E-05</v>
+        <v>4.878444281092744E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.2241876666666666</v>
+        <v>0.2866413333333334</v>
       </c>
       <c r="H23">
-        <v>0.6725629999999999</v>
+        <v>0.859924</v>
       </c>
       <c r="I23">
-        <v>0.0004701497458568706</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="J23">
-        <v>0.0004701497458568705</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N23">
         <v>247.930015</v>
       </c>
       <c r="O23">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P23">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q23">
-        <v>18.52761718649389</v>
+        <v>23.68899669098444</v>
       </c>
       <c r="R23">
-        <v>166.748554678445</v>
+        <v>213.20097021886</v>
       </c>
       <c r="S23">
-        <v>0.0001348563806517084</v>
+        <v>0.0001792236297717177</v>
       </c>
       <c r="T23">
-        <v>0.0001348563806517084</v>
+        <v>0.0001792236297717177</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.2241876666666666</v>
+        <v>0.2866413333333334</v>
       </c>
       <c r="H24">
-        <v>0.6725629999999999</v>
+        <v>0.859924</v>
       </c>
       <c r="I24">
-        <v>0.0004701497458568706</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="J24">
-        <v>0.0004701497458568705</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N24">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O24">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P24">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q24">
-        <v>20.45734802370778</v>
+        <v>22.73812903968667</v>
       </c>
       <c r="R24">
-        <v>184.11613221337</v>
+        <v>204.64316135718</v>
       </c>
       <c r="S24">
-        <v>0.0001489022514034185</v>
+        <v>0.0001720296589116959</v>
       </c>
       <c r="T24">
-        <v>0.0001489022514034185</v>
+        <v>0.0001720296589116959</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.2241876666666666</v>
+        <v>0.2866413333333334</v>
       </c>
       <c r="H25">
-        <v>0.6725629999999999</v>
+        <v>0.859924</v>
       </c>
       <c r="I25">
-        <v>0.0004701497458568706</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="J25">
-        <v>0.0004701497458568705</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N25">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O25">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P25">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q25">
-        <v>3.262865337840777</v>
+        <v>4.146887178512</v>
       </c>
       <c r="R25">
-        <v>29.36578804056699</v>
+        <v>37.321984606608</v>
       </c>
       <c r="S25">
-        <v>2.374931463587675E-05</v>
+        <v>3.137406712837157E-05</v>
       </c>
       <c r="T25">
-        <v>2.374931463587675E-05</v>
+        <v>3.137406712837157E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.2241876666666666</v>
+        <v>0.2866413333333334</v>
       </c>
       <c r="H26">
-        <v>0.6725629999999999</v>
+        <v>0.859924</v>
       </c>
       <c r="I26">
-        <v>0.0004701497458568706</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="J26">
-        <v>0.0004701497458568705</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N26">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O26">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P26">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q26">
-        <v>18.22386920284677</v>
+        <v>20.73771411394222</v>
       </c>
       <c r="R26">
-        <v>164.014822825621</v>
+        <v>186.63942702548</v>
       </c>
       <c r="S26">
-        <v>0.0001326454998194573</v>
+        <v>0.0001568951376519633</v>
       </c>
       <c r="T26">
-        <v>0.0001326454998194574</v>
+        <v>0.0001568951376519633</v>
       </c>
     </row>
   </sheetData>
